--- a/adan.xlsx
+++ b/adan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FFDAD7-2114-405A-B1B5-0A886B190086}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF840C2-1C31-4BCF-BBDD-71F3A8E818E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1162,13 +1162,10 @@
   <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,12 +1181,6 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1205,22 +1196,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,9 +1222,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,15 +1269,9 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1316,12 +1286,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1342,9 +1306,6 @@
     <xf numFmtId="44" fontId="3" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1372,21 +1333,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1397,9 +1343,6 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1409,12 +1352,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1423,9 +1360,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1456,6 +1390,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1496,6 +1496,1691 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exercicio 9'!$C$7:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Reais</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Estoque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'exercicio 9'!$C$9:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7E7-4C13-819E-2BF4B5027D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exercicio 9'!$D$7:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Reais</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Custo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'exercicio 9'!$D$9:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7E7-4C13-819E-2BF4B5027D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exercicio 9'!$E$7:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Reais</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Venda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'exercicio 9'!$E$9:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E7E7-4C13-819E-2BF4B5027D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exercicio 9'!$F$7:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Reais</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'exercicio 9'!$F$9:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E7E7-4C13-819E-2BF4B5027D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exercicio 9'!$G$7:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dólar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Custo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'exercicio 9'!$G$9:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.14970059880239522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76946107784431139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4970059880239521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4910179640718563E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4910179640718563E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89820359281437134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4850299401197612E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10479041916167664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7964071856287427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.940119760479042</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7005988023952097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0209580838323351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E7E7-4C13-819E-2BF4B5027D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exercicio 9'!$H$7:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dólar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Venda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'exercicio 9'!$H$9:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.16841317365269462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86564371257485029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6841317365269461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0523952095808386E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0523952095808386E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0104790419161678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.420658682634731E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11788922155688622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0209580838323356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0576347305389222</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9131736526946108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0235778443113794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E7E7-4C13-819E-2BF4B5027D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exercicio 9'!$I$7:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dólar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'exercicio 9'!$I$9:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.31811377245508987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6351047904191618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.181137724550898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5434131736526956E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5434131736526956E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.908682634730539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15905688622754494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22267964071856286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.817365269461078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9977544910179641</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6137724550898205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.044535928143713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E7E7-4C13-819E-2BF4B5027D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="296449472"/>
+        <c:axId val="297898144"/>
+        <c:axId val="26681680"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="296449472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297898144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297898144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296449472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="26681680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297898144"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="309">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1641FFC-A3EC-4182-8037-A1D9A8578D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1777,175 +3462,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>9</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="19">
         <f>SUM(C5,C4,C3,)/3</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="D6" s="40" t="str">
+      <c r="D6" s="32" t="str">
         <f>IF(C6&gt;=7,"Aprovado","Reprovado")</f>
         <v>Aprovado</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="120"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <f>SUM(C11,C10,C9)</f>
         <v>400</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="20">
         <v>20</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="22">
         <v>0.5</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <f>PRODUCT(D16,C16)</f>
         <v>10</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="20">
         <v>15</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="27">
         <v>1</v>
       </c>
-      <c r="E17" s="33">
-        <f t="shared" ref="E17:E18" si="0">PRODUCT(D17,C17)</f>
+      <c r="E17" s="26">
+        <f t="shared" ref="E17" si="0">PRODUCT(D17,C17)</f>
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="21">
         <v>50</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="24">
         <v>0.3</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <f>PRODUCT(D18,C18)</f>
         <v>15</v>
       </c>
@@ -1973,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0A17B7-A254-40C8-8D78-F869A423DB1A}">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1991,424 +3676,424 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="111" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="132">
+      <c r="C4" s="110">
         <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="88">
         <v>3.34</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="139" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23" t="s">
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="134" t="s">
+      <c r="G8" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="H8" s="134" t="s">
+      <c r="H8" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="112" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>500</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0.5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="36">
         <f>E9*C9</f>
         <v>275</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="113">
         <f>D9/$C$5</f>
         <v>0.14970059880239522</v>
       </c>
-      <c r="H9" s="136">
+      <c r="H9" s="114">
         <f>G9*(1+$C$4)</f>
         <v>0.16841317365269462</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="36">
         <f>H9+G9</f>
         <v>0.31811377245508987</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>200</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2.57</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>2.7</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="36">
         <f t="shared" ref="F10:F19" si="0">E10*C10</f>
         <v>540</v>
       </c>
-      <c r="G10" s="135">
+      <c r="G10" s="113">
         <f t="shared" ref="G10:G19" si="1">D10/$C$5</f>
         <v>0.76946107784431139</v>
       </c>
-      <c r="H10" s="136">
+      <c r="H10" s="114">
         <f t="shared" ref="H10:H19" si="2">G10*(1+$C$4)</f>
         <v>0.86564371257485029</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="36">
         <f t="shared" ref="I10:I19" si="3">H10+G10</f>
         <v>1.6351047904191618</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>300</v>
       </c>
-      <c r="D11" s="136">
+      <c r="D11" s="114">
         <v>5</v>
       </c>
-      <c r="E11" s="136">
+      <c r="E11" s="114">
         <v>5.5</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="36">
         <f t="shared" si="0"/>
         <v>1650</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="113">
         <f t="shared" si="1"/>
         <v>1.4970059880239521</v>
       </c>
-      <c r="H11" s="136">
+      <c r="H11" s="114">
         <f t="shared" si="2"/>
         <v>1.6841317365269461</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="36">
         <f t="shared" si="3"/>
         <v>3.181137724550898</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>1000</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0.15</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>0.25</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="36">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G12" s="135">
+      <c r="G12" s="113">
         <f t="shared" si="1"/>
         <v>4.4910179640718563E-2</v>
       </c>
-      <c r="H12" s="136">
+      <c r="H12" s="114">
         <f t="shared" si="2"/>
         <v>5.0523952095808386E-2</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="36">
         <f t="shared" si="3"/>
         <v>9.5434131736526956E-2</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>1000</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>0.15</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>0.25</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="36">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="113">
         <f t="shared" si="1"/>
         <v>4.4910179640718563E-2</v>
       </c>
-      <c r="H13" s="136">
+      <c r="H13" s="114">
         <f t="shared" si="2"/>
         <v>5.0523952095808386E-2</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="36">
         <f t="shared" si="3"/>
         <v>9.5434131736526956E-2</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>200</v>
       </c>
-      <c r="D14" s="136">
+      <c r="D14" s="114">
         <v>3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>3.5</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="36">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G14" s="135">
+      <c r="G14" s="113">
         <f t="shared" si="1"/>
         <v>0.89820359281437134</v>
       </c>
-      <c r="H14" s="136">
+      <c r="H14" s="114">
         <f t="shared" si="2"/>
         <v>1.0104790419161678</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="36">
         <f t="shared" si="3"/>
         <v>1.908682634730539</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>500</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0.25</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>0.3</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="36">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="113">
         <f t="shared" si="1"/>
         <v>7.4850299401197612E-2</v>
       </c>
-      <c r="H15" s="136">
+      <c r="H15" s="114">
         <f t="shared" si="2"/>
         <v>8.420658682634731E-2</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="36">
         <f t="shared" si="3"/>
         <v>0.15905688622754494</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>500</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>0.35</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>0.45</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="36">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="G16" s="135">
+      <c r="G16" s="113">
         <f t="shared" si="1"/>
         <v>0.10479041916167664</v>
       </c>
-      <c r="H16" s="136">
+      <c r="H16" s="114">
         <f t="shared" si="2"/>
         <v>0.11788922155688622</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="36">
         <f t="shared" si="3"/>
         <v>0.22267964071856286</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="D17" s="136">
+      <c r="D17" s="114">
         <v>6</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>6.5</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="36">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="G17" s="135">
+      <c r="G17" s="113">
         <f t="shared" si="1"/>
         <v>1.7964071856287427</v>
       </c>
-      <c r="H17" s="136">
+      <c r="H17" s="114">
         <f t="shared" si="2"/>
         <v>2.0209580838323356</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="36">
         <f t="shared" si="3"/>
         <v>3.817365269461078</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>100</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>3.14</v>
       </c>
-      <c r="E18" s="136">
+      <c r="E18" s="114">
         <v>4</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="36">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="G18" s="135">
+      <c r="G18" s="113">
         <f t="shared" si="1"/>
         <v>0.940119760479042</v>
       </c>
-      <c r="H18" s="136">
+      <c r="H18" s="114">
         <f t="shared" si="2"/>
         <v>1.0576347305389222</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="36">
         <f t="shared" si="3"/>
         <v>1.9977544910179641</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>100</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>5.68</v>
       </c>
-      <c r="E19" s="136">
+      <c r="E19" s="114">
         <v>6</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="36">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G19" s="135">
+      <c r="G19" s="113">
         <f t="shared" si="1"/>
         <v>1.7005988023952097</v>
       </c>
-      <c r="H19" s="136">
+      <c r="H19" s="114">
         <f t="shared" si="2"/>
         <v>1.9131736526946108</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="36">
         <f t="shared" si="3"/>
         <v>3.6137724550898205</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="137">
+      <c r="C20" s="115">
         <f>SUM(C9:C19)</f>
         <v>4450</v>
       </c>
-      <c r="D20" s="137">
+      <c r="D20" s="115">
         <f t="shared" ref="D20:I20" si="4">SUM(D9:D19)</f>
         <v>26.79</v>
       </c>
-      <c r="E20" s="137">
+      <c r="E20" s="115">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="F20" s="138">
+      <c r="F20" s="116">
         <f t="shared" si="4"/>
         <v>5365</v>
       </c>
-      <c r="G20" s="139">
+      <c r="G20" s="117">
         <f t="shared" si="4"/>
         <v>8.0209580838323351</v>
       </c>
-      <c r="H20" s="139">
+      <c r="H20" s="117">
         <f t="shared" si="4"/>
         <v>9.0235778443113794</v>
       </c>
-      <c r="I20" s="138">
+      <c r="I20" s="116">
         <f t="shared" si="4"/>
         <v>17.044535928143713</v>
       </c>
@@ -2419,6 +4104,7 @@
     <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2439,556 +4125,556 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="48">
+      <c r="A5" s="40">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="36">
         <v>4500</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="36">
         <v>5040</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="36">
         <v>5696</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="44">
         <f>SUM(C5:E5)</f>
         <v>15236</v>
       </c>
-      <c r="G5" s="44">
-        <f>LARGE(C5:E5,1)</f>
+      <c r="G5" s="36">
+        <f t="shared" ref="G5:G10" si="0">LARGE(C5:E5,1)</f>
         <v>5696</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="36">
         <f>SMALL(C5:E5,1)</f>
         <v>4500</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="45">
         <f>MEDIAN(C5:E5)</f>
         <v>5040</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="22">
         <v>6250</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="22">
         <v>7000</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="22">
         <v>7910</v>
       </c>
-      <c r="F6" s="52">
-        <f t="shared" ref="F6:F10" si="0">SUM(C6:E6)</f>
+      <c r="F6" s="44">
+        <f t="shared" ref="F6:F10" si="1">SUM(C6:E6)</f>
         <v>21160</v>
       </c>
-      <c r="G6" s="44">
-        <f>LARGE(C6:E6,1)</f>
+      <c r="G6" s="36">
+        <f t="shared" si="0"/>
         <v>7910</v>
       </c>
-      <c r="H6" s="44">
-        <f t="shared" ref="H6:H10" si="1">SMALL(C6:E6,1)</f>
+      <c r="H6" s="36">
+        <f t="shared" ref="H6:H10" si="2">SMALL(C6:E6,1)</f>
         <v>6250</v>
       </c>
-      <c r="I6" s="53">
-        <f t="shared" ref="I6:I10" si="2">MEDIAN(C6:E6)</f>
+      <c r="I6" s="45">
+        <f t="shared" ref="I6:I10" si="3">MEDIAN(C6:E6)</f>
         <v>7000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="48">
+      <c r="A7" s="40">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="36">
         <v>3300</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="36">
         <v>3696</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="36">
         <v>4176</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="44">
+        <f t="shared" si="1"/>
+        <v>11172</v>
+      </c>
+      <c r="G7" s="36">
         <f t="shared" si="0"/>
-        <v>11172</v>
-      </c>
-      <c r="G7" s="44">
-        <f>LARGE(C7:E7,1)</f>
         <v>4176</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="36">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+      <c r="I7" s="45">
+        <f t="shared" si="3"/>
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22">
+        <v>8000</v>
+      </c>
+      <c r="D8" s="22">
+        <v>8690</v>
+      </c>
+      <c r="E8" s="22">
+        <v>10125</v>
+      </c>
+      <c r="F8" s="44">
         <f t="shared" si="1"/>
-        <v>3300</v>
-      </c>
-      <c r="I7" s="53">
+        <v>26815</v>
+      </c>
+      <c r="G8" s="36">
+        <f t="shared" si="0"/>
+        <v>10125</v>
+      </c>
+      <c r="H8" s="36">
         <f t="shared" si="2"/>
-        <v>3696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="29">
         <v>8000</v>
       </c>
-      <c r="D8" s="29">
+      <c r="I8" s="45">
+        <f t="shared" si="3"/>
         <v>8690</v>
       </c>
-      <c r="E8" s="29">
-        <v>10125</v>
-      </c>
-      <c r="F8" s="52">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="40">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="36">
+        <v>4557</v>
+      </c>
+      <c r="D9" s="36">
+        <v>5104</v>
+      </c>
+      <c r="E9" s="36">
+        <v>5676</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" si="1"/>
+        <v>15337</v>
+      </c>
+      <c r="G9" s="36">
         <f t="shared" si="0"/>
-        <v>26815</v>
-      </c>
-      <c r="G8" s="44">
-        <f>LARGE(C8:E8,1)</f>
-        <v>10125</v>
-      </c>
-      <c r="H8" s="44">
+        <v>5676</v>
+      </c>
+      <c r="H9" s="36">
+        <f t="shared" si="2"/>
+        <v>4557</v>
+      </c>
+      <c r="I9" s="45">
+        <f t="shared" si="3"/>
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="23">
+        <v>6</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="24">
+        <v>3260</v>
+      </c>
+      <c r="D10" s="24">
+        <v>3640</v>
+      </c>
+      <c r="E10" s="24">
+        <v>4113</v>
+      </c>
+      <c r="F10" s="54">
         <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="I8" s="53">
+        <v>11013</v>
+      </c>
+      <c r="G10" s="42">
+        <f t="shared" si="0"/>
+        <v>4113</v>
+      </c>
+      <c r="H10" s="42">
         <f t="shared" si="2"/>
-        <v>8690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="48">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="44">
-        <v>4557</v>
-      </c>
-      <c r="D9" s="44">
-        <v>5104</v>
-      </c>
-      <c r="E9" s="44">
-        <v>5676</v>
-      </c>
-      <c r="F9" s="52">
-        <f t="shared" si="0"/>
-        <v>15337</v>
-      </c>
-      <c r="G9" s="44">
-        <f>LARGE(C9:E9,1)</f>
-        <v>5676</v>
-      </c>
-      <c r="H9" s="44">
-        <f t="shared" si="1"/>
-        <v>4557</v>
-      </c>
-      <c r="I9" s="53">
-        <f t="shared" si="2"/>
-        <v>5104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="30">
-        <v>6</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="31">
         <v>3260</v>
       </c>
-      <c r="D10" s="31">
-        <v>3640</v>
-      </c>
-      <c r="E10" s="31">
-        <v>4113</v>
-      </c>
-      <c r="F10" s="64">
-        <f t="shared" si="0"/>
-        <v>11013</v>
-      </c>
-      <c r="G10" s="50">
-        <f>LARGE(C10:E10,1)</f>
-        <v>4113</v>
-      </c>
-      <c r="H10" s="50">
-        <f t="shared" si="1"/>
-        <v>3260</v>
-      </c>
-      <c r="I10" s="65">
-        <f t="shared" si="2"/>
+      <c r="I10" s="55">
+        <f t="shared" si="3"/>
         <v>3640</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="15"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="60">
+      <c r="A14" s="50">
         <f>SUM(C5:C10)</f>
         <v>29867</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="49">
         <f>SUM(D5:D10)</f>
         <v>33170</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="51">
         <f>SUM(E5:E10)</f>
         <v>37696</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="48">
+      <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="36">
         <v>6265</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="36">
         <v>6954</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="36">
         <v>7858</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="44">
         <f>SUM(C17:E17)</f>
         <v>21077</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="36">
         <f>LARGE(C17:E17,1)</f>
         <v>7858</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="36">
         <f>SMALL(C17:E17,1)</f>
         <v>6265</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="45">
         <f>MEDIAN(C17:E17)</f>
         <v>6954</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
+      <c r="A18" s="13">
         <v>2</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="22">
         <v>8701</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="22">
         <v>9658</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="22">
         <v>10197</v>
       </c>
-      <c r="F18" s="29">
-        <f t="shared" ref="F18:F22" si="3">SUM(C18:E18)</f>
+      <c r="F18" s="22">
+        <f t="shared" ref="F18:F22" si="4">SUM(C18:E18)</f>
         <v>28556</v>
       </c>
-      <c r="G18" s="29">
-        <f t="shared" ref="G18:G22" si="4">LARGE(C18:E18,1)</f>
+      <c r="G18" s="22">
+        <f t="shared" ref="G18:G22" si="5">LARGE(C18:E18,1)</f>
         <v>10197</v>
       </c>
-      <c r="H18" s="29">
-        <f t="shared" ref="H18:H22" si="5">SMALL(C18:E18,1)</f>
+      <c r="H18" s="22">
+        <f t="shared" ref="H18:H22" si="6">SMALL(C18:E18,1)</f>
         <v>8701</v>
       </c>
-      <c r="I18" s="66">
-        <f t="shared" ref="I18:I22" si="6">MEDIAN(C18:E18)</f>
+      <c r="I18" s="56">
+        <f t="shared" ref="I18:I22" si="7">MEDIAN(C18:E18)</f>
         <v>9658</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="48">
+      <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="36">
         <v>4569</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="36">
         <v>5099</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="36">
         <v>5769</v>
       </c>
-      <c r="F19" s="52">
-        <f t="shared" si="3"/>
+      <c r="F19" s="44">
+        <f t="shared" si="4"/>
         <v>15437</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="36">
+        <f t="shared" si="5"/>
+        <v>5769</v>
+      </c>
+      <c r="H19" s="36">
+        <f t="shared" si="6"/>
+        <v>4569</v>
+      </c>
+      <c r="I19" s="45">
+        <f t="shared" si="7"/>
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>4</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="22">
+        <v>12341</v>
+      </c>
+      <c r="D20" s="22">
+        <v>12365</v>
+      </c>
+      <c r="E20" s="22">
+        <v>13969</v>
+      </c>
+      <c r="F20" s="22">
         <f t="shared" si="4"/>
-        <v>5769</v>
-      </c>
-      <c r="H19" s="44">
+        <v>38675</v>
+      </c>
+      <c r="G20" s="22">
         <f t="shared" si="5"/>
-        <v>4569</v>
-      </c>
-      <c r="I19" s="53">
+        <v>13969</v>
+      </c>
+      <c r="H20" s="22">
         <f t="shared" si="6"/>
-        <v>5099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>4</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="29">
         <v>12341</v>
       </c>
-      <c r="D20" s="29">
+      <c r="I20" s="56">
+        <f t="shared" si="7"/>
         <v>12365</v>
       </c>
-      <c r="E20" s="29">
-        <v>13969</v>
-      </c>
-      <c r="F20" s="29">
-        <f t="shared" si="3"/>
-        <v>38675</v>
-      </c>
-      <c r="G20" s="29">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="40">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="36">
+        <v>6344</v>
+      </c>
+      <c r="D21" s="36">
+        <v>7042</v>
+      </c>
+      <c r="E21" s="36">
+        <v>7957</v>
+      </c>
+      <c r="F21" s="44">
         <f t="shared" si="4"/>
-        <v>13969</v>
-      </c>
-      <c r="H20" s="29">
+        <v>21343</v>
+      </c>
+      <c r="G21" s="36">
         <f t="shared" si="5"/>
-        <v>12341</v>
-      </c>
-      <c r="I20" s="66">
+        <v>7957</v>
+      </c>
+      <c r="H21" s="36">
         <f t="shared" si="6"/>
-        <v>12365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="48">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="44">
         <v>6344</v>
       </c>
-      <c r="D21" s="44">
+      <c r="I21" s="45">
+        <f t="shared" si="7"/>
         <v>7042</v>
       </c>
-      <c r="E21" s="44">
-        <v>7957</v>
-      </c>
-      <c r="F21" s="52">
-        <f t="shared" si="3"/>
-        <v>21343</v>
-      </c>
-      <c r="G21" s="44">
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="23">
+        <v>6</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="24">
+        <v>4525</v>
+      </c>
+      <c r="D22" s="24">
+        <v>5022</v>
+      </c>
+      <c r="E22" s="24">
+        <v>5671</v>
+      </c>
+      <c r="F22" s="24">
         <f t="shared" si="4"/>
-        <v>7957</v>
-      </c>
-      <c r="H21" s="44">
+        <v>15218</v>
+      </c>
+      <c r="G22" s="24">
         <f t="shared" si="5"/>
-        <v>6344</v>
-      </c>
-      <c r="I21" s="53">
+        <v>5671</v>
+      </c>
+      <c r="H22" s="24">
         <f t="shared" si="6"/>
-        <v>7042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30">
-        <v>6</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="31">
         <v>4525</v>
       </c>
-      <c r="D22" s="31">
-        <v>5022</v>
-      </c>
-      <c r="E22" s="31">
-        <v>5671</v>
-      </c>
-      <c r="F22" s="31">
-        <f t="shared" si="3"/>
-        <v>15218</v>
-      </c>
-      <c r="G22" s="31">
-        <f t="shared" si="4"/>
-        <v>5671</v>
-      </c>
-      <c r="H22" s="31">
-        <f t="shared" si="5"/>
-        <v>4525</v>
-      </c>
-      <c r="I22" s="67">
-        <f t="shared" si="6"/>
+      <c r="I22" s="57">
+        <f t="shared" si="7"/>
         <v>5022</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="60">
+      <c r="A26" s="50">
         <f>SUM(C17:C22)</f>
         <v>42745</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="49">
         <f>SUM(D17:D22)</f>
         <v>46140</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="51">
         <f>SUM(E17:E22)</f>
         <v>51421</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="124"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="68">
+      <c r="A29" s="125">
         <f>SUM(F17:F22,F5:F10)</f>
         <v>241039</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3017,310 +4703,310 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="60" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="43">
         <v>500</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="43">
         <v>750</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="43">
         <v>800</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="43">
         <v>700</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="43">
         <v>654</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="58">
         <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="25"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="123"/>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="37">
         <v>10</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="37">
         <v>15</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="37">
         <v>15</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="37">
         <v>12</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="37">
         <v>12</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="62">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="64">
         <v>50</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="64">
         <v>60</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="64">
         <v>54</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="64">
         <v>55</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="64">
         <v>54</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="65">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="37">
         <v>300</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="37">
         <v>250</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="37">
         <v>300</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="37">
         <v>300</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="37">
         <v>200</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="62">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="64">
         <v>40</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="64">
         <v>40</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="64">
         <v>40</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="64">
         <v>40</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="64">
         <v>40</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="65">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="37">
         <v>10</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="37">
         <v>15</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="37">
         <v>13</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="37">
         <v>15</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="37">
         <v>20</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="62">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="64">
         <v>120</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="64">
         <v>150</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="64">
         <v>130</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="64">
         <v>200</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="64">
         <v>150</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="65">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="37">
         <v>50</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="37">
         <v>60</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="37">
         <v>65</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="37">
         <v>70</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="37">
         <v>65</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="62">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="67">
         <v>145</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="67">
         <v>145</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="67">
         <v>145</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="67">
         <v>145</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="67">
         <v>100</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="68">
         <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="83">
-        <f>SUM(B9:B16)</f>
+      <c r="B18" s="71">
+        <f t="shared" ref="B18:G18" si="0">SUM(B9:B16)</f>
         <v>725</v>
       </c>
-      <c r="C18" s="83">
-        <f>SUM(C9:C16)</f>
+      <c r="C18" s="71">
+        <f t="shared" si="0"/>
         <v>735</v>
       </c>
-      <c r="D18" s="83">
-        <f>SUM(D9:D16)</f>
+      <c r="D18" s="71">
+        <f t="shared" si="0"/>
         <v>762</v>
       </c>
-      <c r="E18" s="83">
-        <f>SUM(E9:E16)</f>
+      <c r="E18" s="71">
+        <f t="shared" si="0"/>
         <v>837</v>
       </c>
-      <c r="F18" s="83">
-        <f>SUM(F9:F16)</f>
+      <c r="F18" s="71">
+        <f t="shared" si="0"/>
         <v>641</v>
       </c>
-      <c r="G18" s="84">
-        <f>SUM(G9:G16)</f>
+      <c r="G18" s="72">
+        <f t="shared" si="0"/>
         <v>758</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="85">
-        <f>B6-B18</f>
+      <c r="B19" s="73">
+        <f t="shared" ref="B19:G19" si="1">B6-B18</f>
         <v>-225</v>
       </c>
-      <c r="C19" s="85">
-        <f>C6-C18</f>
+      <c r="C19" s="73">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D19" s="85">
-        <f>D6-D18</f>
+      <c r="D19" s="73">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="E19" s="85">
-        <f>E6-E18</f>
+      <c r="E19" s="73">
+        <f t="shared" si="1"/>
         <v>-137</v>
       </c>
-      <c r="F19" s="85">
-        <f>F6-F18</f>
+      <c r="F19" s="73">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G19" s="86">
-        <f>G6-G18</f>
+      <c r="G19" s="74">
+        <f t="shared" si="1"/>
         <v>-58</v>
       </c>
     </row>
@@ -3355,281 +5041,281 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
     </row>
     <row r="3" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="39" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="48">
+      <c r="A6" s="40">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="36">
         <v>853</v>
       </c>
-      <c r="D6" s="89">
+      <c r="D6" s="76">
         <v>0.1</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="76">
         <v>0.09</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="44">
         <f>C6*D6</f>
         <v>85.300000000000011</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="44">
         <f>C6*E6</f>
         <v>76.77</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="45">
         <f>C6+G6-F6</f>
         <v>844.47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
+      <c r="A7" s="13">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="22">
         <v>951</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="77">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="77">
         <v>0.08</v>
       </c>
-      <c r="F7" s="93">
+      <c r="F7" s="80">
         <f>C7*D7</f>
         <v>95.004900000000006</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="80">
         <f t="shared" ref="G7:G13" si="0">C7*E7</f>
         <v>76.08</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="46">
         <f t="shared" ref="H7:H13" si="1">C7+G7-F7</f>
         <v>932.07509999999991</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="48">
+      <c r="A8" s="40">
         <f t="shared" ref="A8:A13" si="2">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="36">
         <v>456</v>
       </c>
-      <c r="D8" s="89">
+      <c r="D8" s="76">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E8" s="76">
         <v>0.06</v>
       </c>
-      <c r="F8" s="52">
-        <f t="shared" ref="F7:F13" si="3">C8*D8</f>
+      <c r="F8" s="44">
+        <f t="shared" ref="F8:F13" si="3">C8*D8</f>
         <v>39.398400000000002</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="44">
         <f t="shared" si="0"/>
         <v>27.36</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="45">
         <f t="shared" si="1"/>
         <v>443.96160000000003</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
+      <c r="A9" s="13">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="22">
         <v>500</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="77">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="77">
         <v>0.06</v>
       </c>
-      <c r="F9" s="93">
+      <c r="F9" s="80">
         <f t="shared" si="3"/>
         <v>42.5</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="80">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="46">
         <f t="shared" si="1"/>
         <v>487.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="48">
+      <c r="A10" s="40">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="36">
         <v>850</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="76">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="76">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="44">
         <f t="shared" si="3"/>
         <v>76.414999999999992</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="44">
         <f t="shared" si="0"/>
         <v>59.500000000000007</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="45">
         <f t="shared" si="1"/>
         <v>833.08500000000004</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="22">
         <v>459</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="77">
         <v>6.25E-2</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="77">
         <v>0.05</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="80">
         <f t="shared" si="3"/>
         <v>28.6875</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="80">
         <f t="shared" si="0"/>
         <v>22.950000000000003</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="46">
         <f t="shared" si="1"/>
         <v>453.26249999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="48">
+      <c r="A12" s="40">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="36">
         <v>478</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="76">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="76">
         <v>0.05</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="44">
         <f t="shared" si="3"/>
         <v>34.0336</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="44">
         <f t="shared" si="0"/>
         <v>23.900000000000002</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="45">
         <f t="shared" si="1"/>
         <v>467.8664</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="30">
+      <c r="A13" s="23">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="24">
         <v>658</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="79">
         <v>0.04</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="79">
         <v>0.04</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="81">
         <f t="shared" si="3"/>
         <v>26.32</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="81">
         <f t="shared" si="0"/>
         <v>26.32</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H13" s="82">
         <f t="shared" si="1"/>
         <v>658</v>
       </c>
@@ -3656,179 +5342,179 @@
     <col min="2" max="2" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="89" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="108">
+      <c r="A3" s="90">
         <v>2.94</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="84" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>500</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="37">
         <v>0.15</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="47">
         <f>B7*C7</f>
         <v>75</v>
       </c>
-      <c r="E7" s="99">
-        <f>D7/$A$3</f>
+      <c r="E7" s="86">
+        <f t="shared" ref="E7:E13" si="0">D7/$A$3</f>
         <v>25.510204081632654</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>750</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="64">
         <v>0.15</v>
       </c>
-      <c r="D8" s="110">
-        <f t="shared" ref="D8:D13" si="0">B8*C8</f>
+      <c r="D8" s="92">
+        <f t="shared" ref="D8:D13" si="1">B8*C8</f>
         <v>112.5</v>
       </c>
-      <c r="E8" s="111">
-        <f>D8/$A$3</f>
+      <c r="E8" s="93">
+        <f t="shared" si="0"/>
         <v>38.265306122448983</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>250</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="37">
         <v>10</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="47">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="E9" s="86">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="E9" s="99">
-        <f>D9/$A$3</f>
         <v>850.34013605442181</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>310</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="64">
         <v>0.5</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="92">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="E10" s="93">
         <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="E10" s="111">
-        <f>D10/$A$3</f>
         <v>52.721088435374149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="37">
         <v>0.1</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="47">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="86">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E11" s="99">
-        <f>D11/$A$3</f>
         <v>17.006802721088437</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>1500</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="64">
         <v>2.5</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="92">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="E12" s="93">
         <f t="shared" si="0"/>
-        <v>3750</v>
-      </c>
-      <c r="E12" s="111">
-        <f>D12/$A$3</f>
         <v>1275.5102040816328</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="41">
         <v>190</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="43">
         <v>6</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="49">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
-        <v>1140</v>
-      </c>
-      <c r="E13" s="100">
-        <f>D13/$A$3</f>
         <v>387.75510204081633</v>
       </c>
     </row>
@@ -3860,153 +5546,153 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="39" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="36">
         <v>900</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="36">
         <v>360</v>
       </c>
-      <c r="D4" s="112">
+      <c r="D4" s="94">
         <v>1260</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="22">
         <v>1200</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="22">
         <f>IF(B5&gt;1000,B5*$G$7,B5*$G$6)</f>
         <v>360</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="56">
         <f>SUM(B5:C5)</f>
         <v>1560</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="36">
         <v>1500</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="36">
         <f t="shared" ref="C6:C11" si="0">IF(B6&gt;1000,B6*$G$7,B6*$G$6)</f>
         <v>450</v>
       </c>
-      <c r="D6" s="112">
-        <f t="shared" ref="D6:D11" si="1">SUM(B6:C6)</f>
+      <c r="D6" s="94">
+        <f t="shared" ref="D6:D9" si="1">SUM(B6:C6)</f>
         <v>1950</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="87">
+      <c r="G6" s="75">
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="22">
         <v>2000</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="22">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="56">
         <f t="shared" si="1"/>
         <v>2600</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="75">
         <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="36">
         <v>1400</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="36">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="D8" s="112">
+      <c r="D8" s="94">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="22">
         <v>990</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="22">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="56">
         <f t="shared" si="1"/>
         <v>1386</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="36">
         <v>854</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="36">
         <f t="shared" si="0"/>
         <v>341.6</v>
       </c>
-      <c r="D10" s="112">
+      <c r="D10" s="94">
         <f>SUM(B10:C10)</f>
         <v>1195.5999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="24">
         <v>1100</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="24">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="57">
         <f>SUM(B11:C11)</f>
         <v>1430</v>
       </c>
@@ -4031,274 +5717,274 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="60" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="57"/>
-      <c r="B6" s="51">
+      <c r="A6" s="48"/>
+      <c r="B6" s="43">
         <v>140000</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="43">
         <v>165000</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="43">
         <v>208000</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="43">
         <v>280000</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="58">
         <f>SUM(B6:E6)</f>
         <v>793000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="60" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="37">
         <v>20000</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="37">
         <v>26000</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="37">
         <v>33800</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="37">
         <v>43940</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="62">
         <f>SUM(B9:E9)</f>
         <v>123740</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="37">
         <v>20000</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="37">
         <v>15600</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="37">
         <v>20280</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="37">
         <v>26364</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="62">
         <f t="shared" ref="F10:F14" si="0">SUM(B10:E10)</f>
         <v>82244</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="37">
         <v>12000</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="37">
         <v>20930</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="37">
         <v>27209</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="37">
         <v>35371</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="62">
         <f t="shared" si="0"/>
         <v>95510</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="37">
         <v>16100</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="37">
         <v>28870</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="37">
         <v>33631</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="37">
         <v>43720</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="62">
         <f t="shared" si="0"/>
         <v>122321</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="37">
         <v>19900</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="37">
         <v>39000</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="37">
         <v>50700</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="37">
         <v>65910</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="62">
         <f t="shared" si="0"/>
         <v>175510</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="43">
         <v>25000</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="43">
         <v>32500</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="43">
         <v>42250</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="43">
         <v>54925</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="58">
         <f t="shared" si="0"/>
         <v>154675</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="115">
+      <c r="B17" s="96">
         <f>SUM(B9:B14)</f>
         <v>113000</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="96">
         <f t="shared" ref="C17:E17" si="1">SUM(C9:C14)</f>
         <v>162900</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="96">
         <f t="shared" si="1"/>
         <v>207870</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E17" s="97">
         <f t="shared" si="1"/>
         <v>270230</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="47">
         <f>B6-B17</f>
         <v>27000</v>
       </c>
-      <c r="C18" s="56">
-        <f t="shared" ref="C18:E18" si="2">C6-C17</f>
+      <c r="C18" s="47">
+        <f t="shared" ref="C18:D18" si="2">C6-C17</f>
         <v>2100</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="47">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="E18" s="118">
+      <c r="E18" s="99">
         <f>E6-E17</f>
         <v>9770</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="49" t="str">
+      <c r="B19" s="41" t="str">
         <f>IF(B18&gt;5000,"Lucro total",IF(B18&lt;1000,"Prejuízo Total","Lucro Médio"))</f>
         <v>Lucro total</v>
       </c>
-      <c r="C19" s="4" t="str">
+      <c r="C19" s="3" t="str">
         <f t="shared" ref="C19:E19" si="3">IF(C18&gt;5000,"Lucro total",IF(C18&lt;1000,"Prejuízo Total","Lucro Médio"))</f>
         <v>Lucro Médio</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Prejuízo Total</v>
       </c>
-      <c r="E19" s="120" t="str">
+      <c r="E19" s="101" t="str">
         <f t="shared" si="3"/>
         <v>Lucro total</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123">
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="102">
         <f>SUM(F9:F14)</f>
         <v>754000</v>
       </c>
@@ -4328,151 +6014,151 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F2" s="126"/>
+      <c r="F2" s="105"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="F5" s="102" t="s">
+      <c r="B5" s="136"/>
+      <c r="F5" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="138"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="103">
         <v>4665</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="103">
         <v>4654</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="8" t="str">
         <f>IF(C8=B8,"igual",IF(C8&gt;B8,"maior","menor"))</f>
         <v>menor</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="125">
+      <c r="B9" s="104">
         <v>16574</v>
       </c>
-      <c r="C9" s="125">
+      <c r="C9" s="104">
         <v>24348</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" ref="D9:D13" si="0">IF(C9=B9,"igual",IF(C9&gt;B9,"maior","menor"))</f>
         <v>maior</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="103">
         <v>1654</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="103">
         <v>6468</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>maior</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="125">
+      <c r="B11" s="104">
         <v>654</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="104">
         <v>654</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>igual</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="11" t="str">
+      <c r="G11" s="10" t="str">
         <f>IF(G7&gt;=G9,"Dentro",IF(G7&gt;=G8,"Dentro","Fora"))</f>
         <v>Dentro</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="124">
+      <c r="B12" s="103">
         <v>413</v>
       </c>
-      <c r="C12" s="124">
+      <c r="C12" s="103">
         <v>434</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>maior</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="125">
+      <c r="B13" s="104">
         <v>65765</v>
       </c>
-      <c r="C13" s="125">
+      <c r="C13" s="104">
         <v>54646</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>menor</v>
       </c>
@@ -4497,325 +6183,325 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="131" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" style="131" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" style="131" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="131" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" style="131" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" style="109" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" style="109" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" style="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="106" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="107" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="108" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="107" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="108" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="107" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="E8" s="108" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="107" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="130" t="s">
+      <c r="E10" s="108" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="107" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="130" t="s">
+      <c r="E12" s="108" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="107" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="130" t="s">
+      <c r="E14" s="108" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="129" t="s">
+      <c r="E15" s="107" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="130" t="s">
+      <c r="E16" s="108" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="129" t="s">
+      <c r="E17" s="107" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="108" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="130" t="str">
+      <c r="B21" s="108" t="str">
         <f>VLOOKUP($B$20,$A$2:$E$17,2,0)</f>
         <v>Al. dos Laranjais, 99</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="130" t="str">
+      <c r="B22" s="108" t="str">
         <f>VLOOKUP($B$20,$A$2:$E$17,3,0)</f>
         <v>Centro</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="130" t="str">
+      <c r="B23" s="108" t="str">
         <f>VLOOKUP($B$20,$A$2:$E$17,4,0)</f>
         <v>Rio de Janeiro</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="128" t="s">
+      <c r="A24" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="B24" s="130" t="str">
+      <c r="B24" s="108" t="str">
         <f>VLOOKUP($B$20,$A$2:$E$17,5,0)</f>
         <v>RJ</v>
       </c>
